--- a/pred_ohlcv/54_21/2019-10-31 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>287917.752</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>287917.752</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-145876.2432999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>206080.8947</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>69203.24470000001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>69203.24470000001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1556.870700000029</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1556.870700000029</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>476739.5667</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-58531.00829999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>303508.3776000001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1583831.8012</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1734486.0222</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1512647.7112</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1421873.0132</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1901901.8601</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1901901.8601</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1575358.9431</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1847767.6101</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1710531.5691</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1414817.4741</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1705635.0661</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1535164.3541</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1606439.6751</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1606439.6751</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1345086.1531</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1549976.2271</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1549976.2271</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1379394.6508</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1662809.7629</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1659033.7188</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1659023.7188</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1664902.5688</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1660177.1069</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1660177.1069</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1852816.5929</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1962805.5929</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1779979.6161</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1799979.6161</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1799979.6161</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2262341.016</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2199571.0293</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2208895.5745</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2806276.9408</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2541059.706799999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-3035278.812008382</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-3316792.360008382</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3629090.079008382</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-3381472.844008382</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-3704496.293008382</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-3955419.410008382</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3807821.061008382</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3643049.477908383</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-3643049.477908383</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3900158.788908383</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3474078.977908383</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-3850579.492608383</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-5867033.041108385</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5532289.036408384</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-5519305.386408384</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-5519295.386408384</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5519303.682408384</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-5539303.682408384</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-5539293.682408384</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-5569293.682408384</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6563504.368808384</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6563494.368808384</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-7508126.299108384</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-7490916.655108384</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7438007.498108384</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-7307078.455508383</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-7744360.808708383</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-8273109.134708382</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-8270341.584708382</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-8239570.471708382</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-7966769.100708382</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>287917.752</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>287917.752</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-145876.2432999999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>206080.8947</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>69203.24470000001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>69203.24470000001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1556.870700000029</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1556.870700000029</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>476739.5667</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-58531.00829999999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>303508.3776000001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1583831.8012</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1734486.0222</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1512647.7112</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1421873.0132</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1901901.8601</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1901901.8601</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1575358.9431</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1847767.6101</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1710531.5691</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1414817.4741</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1575830.9001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1705635.0661</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1535164.3541</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1622742.1381</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1606439.6751</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1345086.1531</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1549976.2271</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1379394.6508</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1662809.7629</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1659033.7188</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1659023.7188</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1664902.5688</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1660177.1069</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1660177.1069</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1852816.5929</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1962805.5929</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1779979.6161</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1799979.6161</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2199571.0293</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2208895.5745</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2806276.9408</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2541059.706799999</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-3035278.812008382</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-3316792.360008382</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3629090.079008382</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-3381472.844008382</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-3704496.293008382</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-3955419.410008382</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3807821.061008382</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3643049.477908383</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-3643049.477908383</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3900158.788908383</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3474078.977908383</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-3850579.492608383</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-5867033.041108385</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5532289.036408384</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-5519305.386408384</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-5519295.386408384</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5519303.682408384</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-5539303.682408384</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-5539293.682408384</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-5569293.682408384</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6563504.368808384</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6563494.368808384</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-7508126.299108384</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-7490916.655108384</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7438007.498108384</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-7307078.455508383</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-7744360.808708383</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-8273109.134708382</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-7966769.100708382</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-7966769.100708382</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-8219623.812708382</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
